--- a/result/trbt.xlsx
+++ b/result/trbt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 2 250мл 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 1 250мл 1шт</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 4 250мл 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 2 250мл 1шт</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 5 250мл 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 4 250мл 1шт</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 5 500мл 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 5 250мл 1шт</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 6 250мл 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 5 500мл 1шт</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 6 500мл 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 6 250мл 1шт</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР Курица 2.5кг 1шт</t>
+          <t>ТРБТ NECON МАСЛО RICETTA 6 500мл 1шт</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР Лосось 2.5кг 1шт</t>
+          <t>ТРБТ КОТ OL ВЗР Курица 2.5кг 1шт</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР Лосось 7.5кг 1шт</t>
+          <t>ТРБТ КОТ OL ВЗР Лосось 2.5кг 1шт</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР СТРЗ Курица 7.5кг 1шт</t>
+          <t>ТРБТ КОТ OL ВЗР Лосось 7.5кг 1шт</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ LARA МОЛ Курица 2кг 1шт</t>
+          <t>ТРБТ КОТ OL ВЗР СТРЗ Курица 7.5кг 1шт</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ LARA ВЗР ПЗМ Курица 2кг 1шт</t>
+          <t>ТРБТ КОТ LARA МОЛ Курица 2кг 1шт</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ LARA ВЗР СТРЗ Курица 2кг 1шт</t>
+          <t>ТРБТ КОТ LARA ВЗР ПЗМ Курица 2кг 1шт</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OKE ВЗР Рыба 4кг 1шт</t>
+          <t>ТРБТ КОТ LARA ВЗР СТРЗ Курица 2кг 1шт</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OKE ВЗР Рыба 10кг 1шт</t>
+          <t>ТРБТ КОТ OKE ВЗР Рыба 4кг 1шт</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ МОЛ индейка рис 0.4кг 1шт</t>
+          <t>ТРБТ КОТ OKE ВЗР Рыба 10кг 1шт</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ МОЛ индейка рис 1.5кг 1шт</t>
+          <t>ТРБТ NECON КОТ МОЛ индейка рис 0.4кг 1шт</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ МОЛ индейка рис 10кг 1шт</t>
+          <t>ТРБТ NECON КОТ МОЛ индейка рис 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 1.5кг 1шт</t>
+          <t>ТРБТ NECON КОТ МОЛ индейка рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 1.5кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
@@ -913,12 +913,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 1.5кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР лосось рис 10кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 1.5кг 1шт</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР индейка рис 10кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР лосось рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 10кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР индейка рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 10кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 10кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 10кг 1шт</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 2.5кг 1шт</t>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 2.5кг 1шт</t>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 2.5кг 1шт</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 7.5кг 1шт</t>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 2.5кг 1шт</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 7.5кг 1шт</t>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 7.5кг 1шт</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>451</v>
+        <v>360</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР СР КР Лосось Рис 12.5кг 1шт</t>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 7.5кг 1шт</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР СР КР Ягнёнок Рис 12.5кг 1шт</t>
+          <t>ТРБТ СОБ OL ВЗР СР КР Лосось Рис 12.5кг 1шт</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 12.5кг 1шт</t>
+          <t>ТРБТ СОБ OL ВЗР СР КР Ягнёнок Рис 12.5кг 1шт</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL Breeder ВЗР ВСЕ Ягнёнок Рис 20кг 1шт</t>
+          <t>ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 12.5кг 1шт</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР МЕЛК Ягнёнок 3кг 1шт</t>
+          <t>ТРБТ СОБ OL Breeder ВЗР ВСЕ Ягнёнок Рис 20кг 1шт</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР ВСЕ Говядина 15кг 1шт</t>
+          <t>ТРБТ СОБ HL ВЗР МЕЛК Ягнёнок 3кг 1шт</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР ВСЕ Лосось 15кг 1шт</t>
+          <t>ТРБТ СОБ HL ВЗР ВСЕ Говядина 15кг 1шт</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР ВСЕ Ягнёнок 15кг 1шт</t>
+          <t>ТРБТ СОБ HL ВЗР ВСЕ Лосось 15кг 1шт</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OKE DK ВЗР ВСЕ Мясо 10кг 1шт</t>
+          <t>ТРБТ СОБ HL ВЗР ВСЕ Ягнёнок 15кг 1шт</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OKE МОЛ ВСЕ Мясо 10кг 1шт</t>
+          <t>ТРБТ СОБ OKE DK ВЗР ВСЕ Мясо 10кг 1шт</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OKE ВЗР ВСЕ Ягненок Рис 20кг 1шт</t>
+          <t>ТРБТ СОБ OKE МОЛ ВСЕ Мясо 10кг 1шт</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 12кг 1шт</t>
+          <t>ТРБТ СОБ OKE ВЗР ВСЕ Ягненок Рис 20кг 1шт</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 3кг 1шт</t>
+          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР рыба рис 3кг 1шт</t>
+          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР оленина картофель 12кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР рыба рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР свинина рис 12кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР оленина картофель 12кг 1шт</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР свинина рис 3кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР свинина рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР оленина картофель 3кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР свинина рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 12кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР оленина картофель 3кг 1шт</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 3кг 1шт</t>
+          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>471</v>
+        <v>378</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР ягненок рис 12кг 1шт</t>
+          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР ягненок рис 3кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР ягненок рис 12кг 1шт</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР ягненок рис 20кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР ягненок рис 3кг 1шт</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР оленина картофель 20кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР ягненок рис 20кг 1шт</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР свинина рис 20кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР оленина картофель 20кг 1шт</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР индейка рис 20кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР свинина рис 20кг 1шт</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 2кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР индейка рис 20кг 1шт</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
@@ -1727,12 +1727,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 2кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 2кг 1шт</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 0.8кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 2кг 1шт</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 2кг 1шт</t>
+          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>368</v>
+        <v>441</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 0.8кг 1шт</t>
+          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 2кг 1шт</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>465</v>
+        <v>306</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 10кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 0.8кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>419</v>
+        <v>300</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 10кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 0.8кг 1шт</t>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 2кг 1шт</t>
+          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 0.8кг 1шт</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 10кг 1шт</t>
+          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 2кг 1шт</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-1</t>
+          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 10кг 1шт</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-2</t>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-6</t>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>468</v>
+        <v>308</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>427</v>
+        <v>325</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-6</t>
+          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-2</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-3</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-5</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>326</v>
+        <v>467</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-2</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-3</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-6</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-6</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-2</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-3</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-5</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-5</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-2</t>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-6</t>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-6</t>
+          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 15KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS PROMO 16.5KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 15KG-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 20KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS PROMO 16.5KG-1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 20KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 20KG-1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>343</v>
+        <v>461</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 20KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 20KG-1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 20KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 20KG-1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE STICKS VEG+DAN 0.06KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 20KG-1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE STICKS FRUIT FLOWER 0.06KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS VEG+DAN 0.06KG-1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE STICKS NUTS RAISIN 0.06KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS FRUIT FLOWER 0.06KG-1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE SEPIA 0.08KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS NUTS RAISIN 0.06KG-1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-1</t>
+          <t>ТРБТ ПТИЦ PRESTIGE SEPIA 0.08KG-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-2</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-3</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-5</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-6</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-5</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>314</v>
+        <v>425</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-6</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-2</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-3</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-5</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-6</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-5</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-6</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-2</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-3</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-5</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-3</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-6</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-5</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-6</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-6</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 1.75KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-6</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 1.75KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 1.75KG-1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 8KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 1.75KG-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>433</v>
+        <v>340</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 8KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 8KG-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>475</v>
+        <v>346</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 8KG-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-2</t>
+          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-5</t>
+          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-1</t>
+          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-5</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-2</t>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>302</v>
+        <v>435</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-3</t>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-2</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>443</v>
+        <v>368</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-5</t>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-3</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-1</t>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-5</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-2</t>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-3</t>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-2</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-5</t>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-3</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-1</t>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-5</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-2</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-3</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-2</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-5</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-3</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-1</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-5</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-2</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>321</v>
+        <v>432</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-3</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-5</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-3</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-1</t>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-5</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CUNI 0.75KG-1</t>
+          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-1</t>
+          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CUNI 0.75KG-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-6</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-6</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-3</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-3</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-6</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-2</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-6</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-5</t>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-5</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-5</t>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-5</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-5</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-5</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-3</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-5</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-3</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
@@ -4037,12 +4037,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-5</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-5</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-5</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-2</t>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
@@ -4125,12 +4125,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-3</t>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-2</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-5</t>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-3</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 10KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-5</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 20KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 10KG-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 20KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 20KG-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 20KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 20KG-1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 20KG-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC CUNI 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-1</t>
+          <t>ТРБТ ГРЫЗ CLASSIC CUNI 0.5KG-1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>459</v>
+        <v>375</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-5</t>
+          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC ZERO 20KG-1</t>
+          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-5</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>480</v>
+        <v>366</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY STICKS поп мед 0.1KG 1шт</t>
+          <t>ТРБТ ГРЫЗ CLASSIC ZERO 20KG-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY STICKS фрукты 0.11KG 1шт</t>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS поп мед 0.1KG 1шт</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY STICKS лесные фрукты 0.11KG 1шт</t>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS фрукты 0.11KG 1шт</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>474</v>
+        <v>323</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
@@ -4433,15 +4433,37 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ ПЕСОК CHINCHILLA 1.3KG-1</t>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS лесные фрукты 0.11KG 1шт</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ТРБТ ГРЫЗ ПЕСОК CHINCHILLA 1.3KG-1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>475</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>

--- a/result/trbt.xlsx
+++ b/result/trbt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заполнение обязательных ячеек  </t>
+          <t>Заполнение обязательных ячеек</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Заполнение обязательных ячеек</t>
+          <t>Цена с НДС</t>
         </is>
       </c>
     </row>
@@ -473,18 +473,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 1 250мл 1шт</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 1.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8057438754298</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>338</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>740</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="3">
@@ -495,18 +501,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 2 250мл 1шт</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8057438754380</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>445</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>633</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>216.02</v>
       </c>
     </row>
     <row r="4">
@@ -517,18 +529,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 4 250мл 1шт</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 1.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8057438753192</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>480</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>721</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>42.38</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +557,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 5 250мл 1шт</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8057438754519</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>459</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>862</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>216.14</v>
       </c>
     </row>
     <row r="6">
@@ -561,18 +585,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 5 500мл 1шт</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ свинина рис 1.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8057438754076</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>354</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>715</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>41.71</v>
       </c>
     </row>
     <row r="7">
@@ -583,18 +613,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 6 250мл 1шт</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ свинина рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8057438754205</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>332</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>590</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>216.04</v>
       </c>
     </row>
     <row r="8">
@@ -605,18 +641,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ТРБТ NECON МАСЛО RICETTA 6 500мл 1шт</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 1.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8057438753116</t>
+        </is>
+      </c>
       <c r="D8" t="n">
-        <v>436</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>993</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>41.71</v>
       </c>
     </row>
     <row r="9">
@@ -627,18 +669,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР Курица 2.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8057438754526</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>320</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>578</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>229.81</v>
       </c>
     </row>
     <row r="10">
@@ -649,18 +697,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР Лосось 2.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР индейка рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8057438754366</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>390</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>856</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>214.2</v>
       </c>
     </row>
     <row r="11">
@@ -671,18 +725,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР Лосось 7.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ ВЗР лосось рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8057438754229</t>
+        </is>
+      </c>
       <c r="D11" t="n">
-        <v>422</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>683</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>221.11</v>
       </c>
     </row>
     <row r="12">
@@ -693,18 +753,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OL ВЗР СТРЗ Курица 7.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ МОЛ индейка рис 0.4кг 1шт</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8057438752195</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>433</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>554</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>14.51</v>
       </c>
     </row>
     <row r="13">
@@ -715,18 +781,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ LARA МОЛ Курица 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ МОЛ индейка рис 1.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8057438752201</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>412</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>521</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>43.4</v>
       </c>
     </row>
     <row r="14">
@@ -737,18 +809,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ LARA ВЗР ПЗМ Курица 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>ТРБТ NECON КОТ МОЛ индейка рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8057438754502</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>444</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>791</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>227.84</v>
       </c>
     </row>
     <row r="15">
@@ -759,18 +837,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ LARA ВЗР СТРЗ Курица 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 1 150мл 1шт</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8057438754762</t>
+        </is>
+      </c>
       <c r="D15" t="n">
-        <v>339</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>740</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="16">
@@ -781,18 +865,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OKE ВЗР Рыба 4кг 1шт</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 1 250мл 1шт</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8057438752218</t>
+        </is>
+      </c>
       <c r="D16" t="n">
-        <v>362</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>813</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>37.308</v>
       </c>
     </row>
     <row r="17">
@@ -803,18 +893,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ТРБТ КОТ OKE ВЗР Рыба 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 1 500мл 1шт</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8057438752225</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>402</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>676</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>53.328</v>
       </c>
     </row>
     <row r="18">
@@ -825,18 +921,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ МОЛ индейка рис 0.4кг 1шт</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 2 150мл 1шт</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8057438753123</t>
+        </is>
+      </c>
       <c r="D18" t="n">
-        <v>304</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>885</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="19">
@@ -847,18 +949,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ МОЛ индейка рис 1.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 2 250мл 1шт</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8057438752249</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>460</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>572</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>40.248</v>
       </c>
     </row>
     <row r="20">
@@ -869,18 +977,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ МОЛ индейка рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 2 500мл 1шт</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8057438752256</t>
+        </is>
+      </c>
       <c r="D20" t="n">
-        <v>473</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>616</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>56.58</v>
       </c>
     </row>
     <row r="21">
@@ -891,18 +1005,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 1.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 2 950мл 1шт</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8057438752263</t>
+        </is>
+      </c>
       <c r="D21" t="n">
-        <v>413</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>837</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>91.548</v>
       </c>
     </row>
     <row r="22">
@@ -913,18 +1033,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 1.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 4 150мл 1шт</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8057438753093</t>
+        </is>
+      </c>
       <c r="D22" t="n">
-        <v>307</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>918</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="23">
@@ -935,18 +1061,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 1.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 4 250мл 1шт</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8057438754649</t>
+        </is>
+      </c>
       <c r="D23" t="n">
-        <v>369</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>803</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>38.82</v>
       </c>
     </row>
     <row r="24">
@@ -957,18 +1089,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР лосось рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 5 150мл 1шт</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8057438753024</t>
+        </is>
+      </c>
       <c r="D24" t="n">
-        <v>341</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>841</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="25">
@@ -979,18 +1117,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР индейка рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 5 250мл 1шт</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8057438754663</t>
+        </is>
+      </c>
       <c r="D25" t="n">
-        <v>381</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>656</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>39.492</v>
       </c>
     </row>
     <row r="26">
@@ -1001,18 +1145,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 5 500мл 1шт</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8057438754670</t>
+        </is>
+      </c>
       <c r="D26" t="n">
-        <v>327</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>641</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>61.764</v>
       </c>
     </row>
     <row r="27">
@@ -1023,18 +1173,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 6 150мл 1шт</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8057438753031</t>
+        </is>
+      </c>
       <c r="D27" t="n">
-        <v>319</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>987</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="28">
@@ -1045,18 +1201,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ТРБТ NECON КОТ ВЗР СТРЗ утка рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 6 250мл 1шт</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8057438754687</t>
+        </is>
+      </c>
       <c r="D28" t="n">
-        <v>431</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>548</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>50.62</v>
       </c>
     </row>
     <row r="29">
@@ -1067,18 +1229,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 2.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>ТРБТ NECON МАСЛО RICETTA 6 500мл 1шт</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8057438754694</t>
+        </is>
+      </c>
       <c r="D29" t="n">
-        <v>342</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>838</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>78.036</v>
       </c>
     </row>
     <row r="30">
@@ -1089,18 +1257,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 2.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 0.8кг 1шт</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8057438754496</t>
+        </is>
+      </c>
       <c r="D30" t="n">
-        <v>394</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>854</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>22.97</v>
       </c>
     </row>
     <row r="31">
@@ -1111,18 +1285,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 7.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8057438754342</t>
+        </is>
+      </c>
       <c r="D31" t="n">
-        <v>360</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>785</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>188.56</v>
       </c>
     </row>
     <row r="32">
@@ -1133,18 +1313,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 7.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8057438754304</t>
+        </is>
+      </c>
       <c r="D32" t="n">
-        <v>331</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>967</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>50.1</v>
       </c>
     </row>
     <row r="33">
@@ -1155,18 +1341,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР СР КР Лосось Рис 12.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 0.8кг 1шт</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8057438754458</t>
+        </is>
+      </c>
       <c r="D33" t="n">
-        <v>350</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>832</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>25.03</v>
       </c>
     </row>
     <row r="34">
@@ -1177,18 +1369,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL ВЗР СР КР Ягнёнок Рис 12.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8057438754144</t>
+        </is>
+      </c>
       <c r="D34" t="n">
-        <v>396</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>605</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>188.58</v>
       </c>
     </row>
     <row r="35">
@@ -1199,18 +1397,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 12.5кг 1шт</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8057438754014</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>373</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>666</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>48.04</v>
       </c>
     </row>
     <row r="36">
@@ -1221,18 +1425,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OL Breeder ВЗР ВСЕ Ягнёнок Рис 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР индейка рис 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8057438752102</t>
+        </is>
+      </c>
       <c r="D36" t="n">
-        <v>305</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>153.24</v>
       </c>
     </row>
     <row r="37">
@@ -1243,18 +1453,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР МЕЛК Ягнёнок 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР индейка рис 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8057438732095</t>
+        </is>
+      </c>
       <c r="D37" t="n">
-        <v>420</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>824</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>246.35</v>
       </c>
     </row>
     <row r="38">
@@ -1265,18 +1481,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР ВСЕ Говядина 15кг 1шт</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР индейка рис 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8057438752119</t>
+        </is>
+      </c>
       <c r="D38" t="n">
-        <v>395</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>65.62</v>
       </c>
     </row>
     <row r="39">
@@ -1287,18 +1509,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР ВСЕ Лосось 15кг 1шт</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР оленина картофель 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8057438752041</t>
+        </is>
+      </c>
       <c r="D39" t="n">
-        <v>324</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>211.76</v>
       </c>
     </row>
     <row r="40">
@@ -1309,18 +1537,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ HL ВЗР ВСЕ Ягнёнок 15кг 1шт</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР оленина картофель 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8057438722096</t>
+        </is>
+      </c>
       <c r="D40" t="n">
-        <v>429</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>635</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>273.86</v>
       </c>
     </row>
     <row r="41">
@@ -1331,18 +1565,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OKE DK ВЗР ВСЕ Мясо 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР оленина картофель 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8057438752058</t>
+        </is>
+      </c>
       <c r="D41" t="n">
-        <v>344</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>962</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1353,18 +1593,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OKE МОЛ ВСЕ Мясо 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР рыба рис 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>8057438752027</t>
+        </is>
+      </c>
       <c r="D42" t="n">
-        <v>385</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>197.32</v>
       </c>
     </row>
     <row r="43">
@@ -1375,18 +1621,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ТРБТ СОБ OKE ВЗР ВСЕ Ягненок Рис 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР рыба рис 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8057438752034</t>
+        </is>
+      </c>
       <c r="D43" t="n">
-        <v>345</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>516</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>64.48999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1397,18 +1649,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР свинина рис 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8057438752089</t>
+        </is>
+      </c>
       <c r="D44" t="n">
-        <v>398</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>944</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>157.46</v>
       </c>
     </row>
     <row r="45">
@@ -1419,18 +1677,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР свинина рис 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>8057438812097</t>
+        </is>
+      </c>
       <c r="D45" t="n">
-        <v>387</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>820</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>239.52</v>
       </c>
     </row>
     <row r="46">
@@ -1441,18 +1705,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР рыба рис 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР свинина рис 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>8057438752096</t>
+        </is>
+      </c>
       <c r="D46" t="n">
-        <v>377</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>595</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>55.26</v>
       </c>
     </row>
     <row r="47">
@@ -1463,18 +1733,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР оленина картофель 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР ягненок рис 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8057438752126</t>
+        </is>
+      </c>
       <c r="D47" t="n">
-        <v>454</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>941</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>185.68</v>
       </c>
     </row>
     <row r="48">
@@ -1485,18 +1761,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР свинина рис 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР ягненок рис 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>8057438742094</t>
+        </is>
+      </c>
       <c r="D48" t="n">
-        <v>443</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>572</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>260.14</v>
       </c>
     </row>
     <row r="49">
@@ -1507,18 +1789,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР свинина рис 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ВЗР ягненок рис 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8057438752133</t>
+        </is>
+      </c>
       <c r="D49" t="n">
-        <v>447</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>957</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>62.82</v>
       </c>
     </row>
     <row r="50">
@@ -1529,18 +1817,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР оленина картофель 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8057438752003</t>
+        </is>
+      </c>
       <c r="D50" t="n">
-        <v>302</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>578</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>175.31</v>
       </c>
     </row>
     <row r="51">
@@ -1551,18 +1845,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>8057438752010</t>
+        </is>
+      </c>
       <c r="D51" t="n">
-        <v>378</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>841</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>61.48</v>
       </c>
     </row>
     <row r="52">
@@ -1573,18 +1873,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 0.8кг 1шт</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>8057438754465</t>
+        </is>
+      </c>
       <c r="D52" t="n">
-        <v>365</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>812</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>27.08</v>
       </c>
     </row>
     <row r="53">
@@ -1595,18 +1901,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР ягненок рис 12кг 1шт</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8057438753208</t>
+        </is>
+      </c>
       <c r="D53" t="n">
-        <v>309</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>783</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>54.22</v>
       </c>
     </row>
     <row r="54">
@@ -1617,18 +1929,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР ягненок рис 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 12кг 1шт</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8057438752065</t>
+        </is>
+      </c>
       <c r="D54" t="n">
-        <v>389</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>733</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>161.72</v>
       </c>
     </row>
     <row r="55">
@@ -1639,18 +1957,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР ягненок рис 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8057438752072</t>
+        </is>
+      </c>
       <c r="D55" t="n">
-        <v>372</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>524</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>68.42</v>
       </c>
     </row>
     <row r="56">
@@ -1661,18 +1985,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР оленина картофель 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 0.8кг 1шт</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>8057438754489</t>
+        </is>
+      </c>
       <c r="D56" t="n">
-        <v>415</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>514</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>27.78</v>
       </c>
     </row>
     <row r="57">
@@ -1683,18 +2013,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР свинина рис 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>8057438754540</t>
+        </is>
+      </c>
       <c r="D57" t="n">
-        <v>476</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>629</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>195.56</v>
       </c>
     </row>
     <row r="58">
@@ -1705,18 +2041,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР индейка рис 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8057438754137</t>
+        </is>
+      </c>
       <c r="D58" t="n">
-        <v>457</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>931</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>55.61</v>
       </c>
     </row>
     <row r="59">
@@ -1727,18 +2069,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>5410340616123</t>
+        </is>
+      </c>
       <c r="D59" t="n">
-        <v>448</v>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>611</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="60">
@@ -1749,18 +2097,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5410340616123</t>
+        </is>
+      </c>
       <c r="D60" t="n">
-        <v>336</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>775</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="61">
@@ -1771,18 +2125,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 0.8кг 1шт</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CLASSIC CUNI 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5410340616109</t>
+        </is>
+      </c>
       <c r="D61" t="n">
-        <v>441</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>724</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1793,18 +2153,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5410340616147</t>
+        </is>
+      </c>
       <c r="D62" t="n">
-        <v>306</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>841</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="63">
@@ -1815,18 +2181,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 0.8кг 1шт</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5410340616147</t>
+        </is>
+      </c>
       <c r="D63" t="n">
-        <v>471</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>949</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="64">
@@ -1837,18 +2209,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CLASSIC ZERO 20KG-1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5410340616062</t>
+        </is>
+      </c>
       <c r="D64" t="n">
-        <v>300</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>936</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>81.42</v>
       </c>
     </row>
     <row r="65">
@@ -1859,18 +2237,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 0.8кг 1шт</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5410340612514</t>
+        </is>
+      </c>
       <c r="D65" t="n">
-        <v>399</v>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>11.83</v>
       </c>
     </row>
     <row r="66">
@@ -1881,18 +2265,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5410340612514</t>
+        </is>
+      </c>
       <c r="D66" t="n">
-        <v>472</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>11.83</v>
       </c>
     </row>
     <row r="67">
@@ -1903,18 +2293,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 0.8кг 1шт</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5410340612514</t>
+        </is>
+      </c>
       <c r="D67" t="n">
-        <v>465</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>11.83</v>
       </c>
     </row>
     <row r="68">
@@ -1925,18 +2321,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>5410340612514</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>450</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>11.83</v>
       </c>
     </row>
     <row r="69">
@@ -1947,18 +2349,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 10кг 1шт</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-6</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5410340612514</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>348</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>11.83</v>
       </c>
     </row>
     <row r="70">
@@ -1969,18 +2377,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-1</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 1.75KG-1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5410340613122</t>
+        </is>
+      </c>
       <c r="D70" t="n">
-        <v>451</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>743</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>40.27</v>
       </c>
     </row>
     <row r="71">
@@ -1991,18 +2405,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-2</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 3KG-1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5410340615287</t>
+        </is>
+      </c>
       <c r="D71" t="n">
-        <v>308</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>588</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>70.34</v>
       </c>
     </row>
     <row r="72">
@@ -2013,18 +2433,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-6</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 8KG-1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5410340615225</t>
+        </is>
+      </c>
       <c r="D72" t="n">
-        <v>325</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>682</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>147.02</v>
       </c>
     </row>
     <row r="73">
@@ -2035,18 +2461,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-1</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5410340612552</t>
+        </is>
+      </c>
       <c r="D73" t="n">
-        <v>416</v>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>987</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="74">
@@ -2057,18 +2489,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-6</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5410340612552</t>
+        </is>
+      </c>
       <c r="D74" t="n">
-        <v>370</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>893</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="75">
@@ -2079,18 +2517,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-1</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5410340612552</t>
+        </is>
+      </c>
       <c r="D75" t="n">
-        <v>326</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>654</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="76">
@@ -2101,18 +2545,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-2</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5410340612552</t>
+        </is>
+      </c>
       <c r="D76" t="n">
-        <v>409</v>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>551</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="77">
@@ -2123,18 +2573,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-3</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-6</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5410340612552</t>
+        </is>
+      </c>
       <c r="D77" t="n">
-        <v>467</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>783</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="78">
@@ -2145,18 +2601,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-5</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 1.75KG-1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5410340613139</t>
+        </is>
+      </c>
       <c r="D78" t="n">
-        <v>466</v>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>517</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>41.35</v>
       </c>
     </row>
     <row r="79">
@@ -2167,18 +2629,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-1</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 8KG-1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5410340615249</t>
+        </is>
+      </c>
       <c r="D79" t="n">
-        <v>391</v>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>797</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>157.72</v>
       </c>
     </row>
     <row r="80">
@@ -2189,18 +2657,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-2</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5410340612507</t>
+        </is>
+      </c>
       <c r="D80" t="n">
-        <v>312</v>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>630</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>11.86</v>
       </c>
     </row>
     <row r="81">
@@ -2211,18 +2685,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-3</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5410340612507</t>
+        </is>
+      </c>
       <c r="D81" t="n">
-        <v>392</v>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>969</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>11.86</v>
       </c>
     </row>
     <row r="82">
@@ -2233,18 +2713,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-6</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5410340612507</t>
+        </is>
+      </c>
       <c r="D82" t="n">
-        <v>367</v>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>749</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>11.86</v>
       </c>
     </row>
     <row r="83">
@@ -2255,18 +2741,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-1</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5410340612507</t>
+        </is>
+      </c>
       <c r="D83" t="n">
-        <v>410</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>856</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>11.86</v>
       </c>
     </row>
     <row r="84">
@@ -2277,18 +2769,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-2</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-6</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5410340612507</t>
+        </is>
+      </c>
       <c r="D84" t="n">
-        <v>479</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>702</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>11.86</v>
       </c>
     </row>
     <row r="85">
@@ -2299,18 +2797,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-3</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 1.75KG-1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5410340613283</t>
+        </is>
+      </c>
       <c r="D85" t="n">
-        <v>424</v>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>781</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="86">
@@ -2321,18 +2825,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-5</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 3KG-1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5410340615270</t>
+        </is>
+      </c>
       <c r="D86" t="n">
-        <v>337</v>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>989</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>70.34</v>
       </c>
     </row>
     <row r="87">
@@ -2343,18 +2853,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-1</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 8KG-1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5410340615218</t>
+        </is>
+      </c>
       <c r="D87" t="n">
-        <v>407</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>147.02</v>
       </c>
     </row>
     <row r="88">
@@ -2365,18 +2881,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-2</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5410340613085</t>
+        </is>
+      </c>
       <c r="D88" t="n">
-        <v>442</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>691</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="89">
@@ -2387,18 +2909,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-6</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-6</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5410340613085</t>
+        </is>
+      </c>
       <c r="D89" t="n">
-        <v>439</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>926</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="90">
@@ -2409,18 +2937,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-1</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5410340613108</t>
+        </is>
+      </c>
       <c r="D90" t="n">
-        <v>333</v>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>715</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="91">
@@ -2431,18 +2965,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-6</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5410340613108</t>
+        </is>
+      </c>
       <c r="D91" t="n">
-        <v>315</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>568</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="92">
@@ -2453,18 +2993,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 15KG-1</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5410340613108</t>
+        </is>
+      </c>
       <c r="D92" t="n">
-        <v>364</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>687</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="93">
@@ -2475,18 +3021,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARROTS PROMO 16.5KG-1</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5410340613108</t>
+        </is>
+      </c>
       <c r="D93" t="n">
-        <v>452</v>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>811</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="94">
@@ -2497,18 +3049,24 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 20KG-1</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-6</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5410340613108</t>
+        </is>
+      </c>
       <c r="D94" t="n">
-        <v>461</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>909</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="95">
@@ -2519,18 +3077,24 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 20KG-1</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE HAMSTER GERBIL 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5410340612965</t>
+        </is>
+      </c>
       <c r="D95" t="n">
-        <v>330</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>754</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="96">
@@ -2541,18 +3105,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 20KG-1</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE RAT MOUSE 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5410340612989</t>
+        </is>
+      </c>
       <c r="D96" t="n">
-        <v>388</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>865</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="97">
@@ -2563,18 +3133,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 20KG-1</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ COMPLETE RAT MOUSE 2KG-1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5410340613153</t>
+        </is>
+      </c>
       <c r="D97" t="n">
-        <v>438</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>558</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>50.57</v>
       </c>
     </row>
     <row r="98">
@@ -2585,18 +3161,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE STICKS VEG+DAN 0.06KG-1</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5410340616987</t>
+        </is>
+      </c>
       <c r="D98" t="n">
-        <v>351</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>757</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="99">
@@ -2607,18 +3189,24 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE STICKS FRUIT FLOWER 0.06KG-1</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5410340616987</t>
+        </is>
+      </c>
       <c r="D99" t="n">
-        <v>335</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>804</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="100">
@@ -2629,18 +3217,24 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE STICKS NUTS RAISIN 0.06KG-1</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-6</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5410340616987</t>
+        </is>
+      </c>
       <c r="D100" t="n">
-        <v>446</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>571</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="101">
@@ -2651,18 +3245,24 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ТРБТ ПТИЦ PRESTIGE SEPIA 0.08KG-1</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5410340617113</t>
+        </is>
+      </c>
       <c r="D101" t="n">
-        <v>357</v>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>788</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="102">
@@ -2673,18 +3273,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5410340617113</t>
+        </is>
+      </c>
       <c r="D102" t="n">
-        <v>428</v>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>991</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="103">
@@ -2695,18 +3301,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-2</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5410340617113</t>
+        </is>
+      </c>
       <c r="D103" t="n">
-        <v>397</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>711</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="104">
@@ -2717,18 +3329,24 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-3</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 20KG-1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5410340611685</t>
+        </is>
+      </c>
       <c r="D104" t="n">
-        <v>403</v>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>802</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>111.82</v>
       </c>
     </row>
     <row r="105">
@@ -2739,18 +3357,24 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-5</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5410340616994</t>
+        </is>
+      </c>
       <c r="D105" t="n">
-        <v>425</v>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>805</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="106">
@@ -2761,18 +3385,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-6</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5410340616994</t>
+        </is>
+      </c>
       <c r="D106" t="n">
-        <v>356</v>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>770</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="107">
@@ -2783,18 +3413,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-6</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5410340616994</t>
+        </is>
+      </c>
       <c r="D107" t="n">
-        <v>453</v>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>665</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="108">
@@ -2805,18 +3441,24 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-2</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5410340617212</t>
+        </is>
+      </c>
       <c r="D108" t="n">
-        <v>456</v>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>667</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="109">
@@ -2827,18 +3469,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-3</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5410340617212</t>
+        </is>
+      </c>
       <c r="D109" t="n">
-        <v>418</v>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>955</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="110">
@@ -2849,18 +3497,24 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-5</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-3</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5410340617212</t>
+        </is>
+      </c>
       <c r="D110" t="n">
-        <v>437</v>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>997</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="111">
@@ -2871,18 +3525,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-6</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5410340617212</t>
+        </is>
+      </c>
       <c r="D111" t="n">
-        <v>382</v>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>684</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="112">
@@ -2893,18 +3553,24 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 20KG-1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5410340611692</t>
+        </is>
+      </c>
       <c r="D112" t="n">
-        <v>414</v>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>705</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>132.19</v>
       </c>
     </row>
     <row r="113">
@@ -2915,18 +3581,24 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-2</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5410340616970</t>
+        </is>
+      </c>
       <c r="D113" t="n">
-        <v>310</v>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>710</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="114">
@@ -2937,18 +3609,24 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-3</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>5410340616970</t>
+        </is>
+      </c>
       <c r="D114" t="n">
-        <v>404</v>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>979</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="115">
@@ -2959,18 +3637,24 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-5</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5410340616970</t>
+        </is>
+      </c>
       <c r="D115" t="n">
-        <v>334</v>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>922</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="116">
@@ -2981,18 +3665,24 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-6</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5410340617014</t>
+        </is>
+      </c>
       <c r="D116" t="n">
-        <v>303</v>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>651</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>7.57</v>
       </c>
     </row>
     <row r="117">
@@ -3003,18 +3693,24 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>5410340617014</t>
+        </is>
+      </c>
       <c r="D117" t="n">
-        <v>463</v>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>995</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>7.57</v>
       </c>
     </row>
     <row r="118">
@@ -3025,18 +3721,24 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-6</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 20KG-1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5410340611296</t>
+        </is>
+      </c>
       <c r="D118" t="n">
-        <v>423</v>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>870</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>115.04</v>
       </c>
     </row>
     <row r="119">
@@ -3047,18 +3749,24 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 1.75KG-1</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5410340615065</t>
+        </is>
+      </c>
       <c r="D119" t="n">
-        <v>481</v>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="120">
@@ -3069,18 +3777,24 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 1.75KG-1</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>5410340615065</t>
+        </is>
+      </c>
       <c r="D120" t="n">
-        <v>340</v>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="121">
@@ -3091,18 +3805,24 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 8KG-1</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5410340615065</t>
+        </is>
+      </c>
       <c r="D121" t="n">
-        <v>346</v>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="122">
@@ -3113,18 +3833,24 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ COMPLETE CAVIA 8KG-1</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-6</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>5410340615065</t>
+        </is>
+      </c>
       <c r="D122" t="n">
-        <v>400</v>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="123">
@@ -3135,18 +3861,24 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>5410340615201</t>
+        </is>
+      </c>
       <c r="D123" t="n">
-        <v>352</v>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>644</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="124">
@@ -3157,18 +3889,24 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-2</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>5410340615201</t>
+        </is>
+      </c>
       <c r="D124" t="n">
-        <v>458</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>968</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="125">
@@ -3179,18 +3917,24 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-5</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-3</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>5410340615201</t>
+        </is>
+      </c>
       <c r="D125" t="n">
-        <v>393</v>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>794</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="126">
@@ -3201,18 +3945,24 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-1</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>5410340615201</t>
+        </is>
+      </c>
       <c r="D126" t="n">
-        <v>435</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>511</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="127">
@@ -3223,18 +3973,24 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-2</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-6</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>5410340615201</t>
+        </is>
+      </c>
       <c r="D127" t="n">
-        <v>368</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>601</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="128">
@@ -3245,18 +4001,24 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-3</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>5410340617359</t>
+        </is>
+      </c>
       <c r="D128" t="n">
-        <v>462</v>
-      </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>7.81</v>
       </c>
     </row>
     <row r="129">
@@ -3267,18 +4029,24 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-5</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>5410340617359</t>
+        </is>
+      </c>
       <c r="D129" t="n">
-        <v>371</v>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>7.81</v>
       </c>
     </row>
     <row r="130">
@@ -3289,18 +4057,24 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-1</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>5410340617359</t>
+        </is>
+      </c>
       <c r="D130" t="n">
-        <v>419</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>7.81</v>
       </c>
     </row>
     <row r="131">
@@ -3311,18 +4085,24 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-2</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 15KG-1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5410340610596</t>
+        </is>
+      </c>
       <c r="D131" t="n">
-        <v>470</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>113.68</v>
       </c>
     </row>
     <row r="132">
@@ -3333,18 +4113,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-3</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5410340617304</t>
+        </is>
+      </c>
       <c r="D132" t="n">
-        <v>474</v>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -3355,18 +4141,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-5</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>5410340617304</t>
+        </is>
+      </c>
       <c r="D133" t="n">
-        <v>401</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>758</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -3377,18 +4169,24 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-1</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 10KG-1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>5410340610510</t>
+        </is>
+      </c>
       <c r="D134" t="n">
-        <v>386</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>631</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>72.79000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -3399,18 +4197,24 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-2</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS лесные фрукты 0.11KG 1шт</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>5410340620625</t>
+        </is>
+      </c>
       <c r="D135" t="n">
-        <v>469</v>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>896</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>6.31</v>
       </c>
     </row>
     <row r="136">
@@ -3421,18 +4225,24 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-3</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS морковь петрушка 0.11KG 1шт</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>5410340620601</t>
+        </is>
+      </c>
       <c r="D136" t="n">
-        <v>426</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>6.56</v>
       </c>
     </row>
     <row r="137">
@@ -3443,18 +4253,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-5</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS поп мед 0.1KG 1шт</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>5410340620670</t>
+        </is>
+      </c>
       <c r="D137" t="n">
-        <v>317</v>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>6.31</v>
       </c>
     </row>
     <row r="138">
@@ -3465,18 +4281,24 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-1</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ CRISPY STICKS фрукты 0.11KG 1шт</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5410340620595</t>
+        </is>
+      </c>
       <c r="D138" t="n">
-        <v>432</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>759</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>6.31</v>
       </c>
     </row>
     <row r="139">
@@ -3487,18 +4309,24 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-2</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>5410340614099</t>
+        </is>
+      </c>
       <c r="D139" t="n">
-        <v>363</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>953</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="140">
@@ -3509,18 +4337,24 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-3</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>5410340614099</t>
+        </is>
+      </c>
       <c r="D140" t="n">
-        <v>329</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>924</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="141">
@@ -3531,18 +4365,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-5</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-3</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5410340614099</t>
+        </is>
+      </c>
       <c r="D141" t="n">
-        <v>421</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>692</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="142">
@@ -3553,18 +4393,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-1</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-5</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>5410340614099</t>
+        </is>
+      </c>
       <c r="D142" t="n">
-        <v>408</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>915</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="143">
@@ -3575,18 +4421,24 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CUNI 0.75KG-1</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>5410340614136</t>
+        </is>
+      </c>
       <c r="D143" t="n">
-        <v>383</v>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="144">
@@ -3597,18 +4449,24 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-1</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-2</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>5410340614136</t>
+        </is>
+      </c>
       <c r="D144" t="n">
-        <v>353</v>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="145">
@@ -3619,18 +4477,24 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-2</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-3</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>5410340614136</t>
+        </is>
+      </c>
       <c r="D145" t="n">
-        <v>411</v>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="146">
@@ -3641,18 +4505,24 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-6</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-5</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>5410340614136</t>
+        </is>
+      </c>
       <c r="D146" t="n">
-        <v>374</v>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="147">
@@ -3663,18 +4533,24 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-1</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-1</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>5410340614488</t>
+        </is>
+      </c>
       <c r="D147" t="n">
-        <v>455</v>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>962</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="148">
@@ -3685,18 +4561,24 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-2</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-2</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5410340614488</t>
+        </is>
+      </c>
       <c r="D148" t="n">
-        <v>417</v>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>969</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="149">
@@ -3707,18 +4589,24 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-3</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-3</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>5410340614488</t>
+        </is>
+      </c>
       <c r="D149" t="n">
-        <v>328</v>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>921</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="150">
@@ -3729,18 +4617,24 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-1</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI 0.7KG-5</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>5410340614488</t>
+        </is>
+      </c>
       <c r="D150" t="n">
-        <v>468</v>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>545</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="151">
@@ -3751,18 +4645,24 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-2</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>5410340614075</t>
+        </is>
+      </c>
       <c r="D151" t="n">
-        <v>313</v>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>953</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>12.32</v>
       </c>
     </row>
     <row r="152">
@@ -3773,18 +4673,24 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-6</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-2</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>5410340614075</t>
+        </is>
+      </c>
       <c r="D152" t="n">
-        <v>477</v>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>597</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>12.32</v>
       </c>
     </row>
     <row r="153">
@@ -3795,18 +4701,24 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-1</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-3</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>5410340614075</t>
+        </is>
+      </c>
       <c r="D153" t="n">
-        <v>406</v>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>966</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>12.32</v>
       </c>
     </row>
     <row r="154">
@@ -3817,18 +4729,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-2</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-5</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5410340614075</t>
+        </is>
+      </c>
       <c r="D154" t="n">
-        <v>434</v>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>880</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>12.32</v>
       </c>
     </row>
     <row r="155">
@@ -3839,18 +4757,24 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-5</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5410340614167</t>
+        </is>
+      </c>
       <c r="D155" t="n">
-        <v>316</v>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>12.48</v>
       </c>
     </row>
     <row r="156">
@@ -3861,18 +4785,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-1</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-2</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>5410340614167</t>
+        </is>
+      </c>
       <c r="D156" t="n">
-        <v>343</v>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>12.48</v>
       </c>
     </row>
     <row r="157">
@@ -3883,18 +4813,24 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-5</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-3</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>5410340614167</t>
+        </is>
+      </c>
       <c r="D157" t="n">
-        <v>379</v>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>12.48</v>
       </c>
     </row>
     <row r="158">
@@ -3905,18 +4841,24 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-1</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE DEGU 0.7KG-5</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>5410340614167</t>
+        </is>
+      </c>
       <c r="D158" t="n">
-        <v>361</v>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>12.48</v>
       </c>
     </row>
     <row r="159">
@@ -3927,18 +4869,24 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-2</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE SNACK CEREALS 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>5410340614389</t>
+        </is>
+      </c>
       <c r="D159" t="n">
-        <v>376</v>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="160">
@@ -3949,18 +4897,24 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-5</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE SNACK CEREALS 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>5410340614389</t>
+        </is>
+      </c>
       <c r="D160" t="n">
-        <v>478</v>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="161">
@@ -3971,18 +4925,24 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-1</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>5410340614402</t>
+        </is>
+      </c>
       <c r="D161" t="n">
-        <v>355</v>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="162">
@@ -3993,18 +4953,24 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-2</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>5410340614402</t>
+        </is>
+      </c>
       <c r="D162" t="n">
-        <v>430</v>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="163">
@@ -4015,18 +4981,24 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-3</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>5410340614402</t>
+        </is>
+      </c>
       <c r="D163" t="n">
-        <v>318</v>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="164">
@@ -4037,18 +5009,24 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-5</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CAVIA 0.75KG-1</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>5410340614570</t>
+        </is>
+      </c>
       <c r="D164" t="n">
-        <v>322</v>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>11.08</v>
       </c>
     </row>
     <row r="165">
@@ -4059,18 +5037,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-1</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>5410340614594</t>
+        </is>
+      </c>
       <c r="D165" t="n">
-        <v>464</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="166">
@@ -4081,18 +5065,24 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-5</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ ORIGINAL NATURE CUNI 0.75KG-1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>5410340614556</t>
+        </is>
+      </c>
       <c r="D166" t="n">
-        <v>347</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>11.08</v>
       </c>
     </row>
     <row r="167">
@@ -4103,18 +5093,24 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-1</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
+          <t>ТРБТ ГРЫЗ ПЕСОК CHINCHILLA 1.3KG-1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>5410340611449</t>
+        </is>
+      </c>
       <c r="D167" t="n">
-        <v>314</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>927</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>15.42</v>
       </c>
     </row>
     <row r="168">
@@ -4125,18 +5121,24 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-2</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР Говядина 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5410340410622</t>
+        </is>
+      </c>
       <c r="D168" t="n">
-        <v>358</v>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>998</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -4147,18 +5149,24 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-3</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР Курица Индейка 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5410340410615</t>
+        </is>
+      </c>
       <c r="D169" t="n">
-        <v>380</v>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>816</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -4169,18 +5177,24 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-5</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР Курица Индейка 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>5410340410790</t>
+        </is>
+      </c>
       <c r="D170" t="n">
-        <v>349</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>23.48</v>
       </c>
     </row>
     <row r="171">
@@ -4191,18 +5205,24 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY SNACK POPCORN 10KG-1</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР Лосось 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>5410340410639</t>
+        </is>
+      </c>
       <c r="D171" t="n">
-        <v>449</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -4213,18 +5233,24 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 20KG-1</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР ПЗМ Курица 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>5410340410752</t>
+        </is>
+      </c>
       <c r="D172" t="n">
-        <v>384</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>955</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>23.82</v>
       </c>
     </row>
     <row r="173">
@@ -4235,18 +5261,24 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 20KG-1</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР СТРЗ Курица 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5410340409992</t>
+        </is>
+      </c>
       <c r="D173" t="n">
-        <v>359</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>640</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>105.47</v>
       </c>
     </row>
     <row r="174">
@@ -4257,18 +5289,24 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 20KG-1</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР СТРЗ Курица 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5410340410776</t>
+        </is>
+      </c>
       <c r="D174" t="n">
-        <v>321</v>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>954</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>23.82</v>
       </c>
     </row>
     <row r="175">
@@ -4279,18 +5317,24 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA ВЗР Ягнёнок 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>5410340409985</t>
+        </is>
+      </c>
       <c r="D175" t="n">
-        <v>427</v>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>938</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -4301,18 +5345,24 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC CUNI 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
+          <t>ТРБТ КОТ LARA МОЛ Курица 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5410340410653</t>
+        </is>
+      </c>
       <c r="D176" t="n">
-        <v>375</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>625</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>24.92</v>
       </c>
     </row>
     <row r="177">
@@ -4323,18 +5373,24 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-1</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
+          <t>ТРБТ КОТ OKE ВЗР Рыба 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5410340412725</t>
+        </is>
+      </c>
       <c r="D177" t="n">
-        <v>311</v>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>982</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>71.34999999999999</v>
       </c>
     </row>
     <row r="178">
@@ -4345,18 +5401,24 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-5</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
+          <t>ТРБТ КОТ OKE ВЗР Рыба 4кг 1шт</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5410340412718</t>
+        </is>
+      </c>
       <c r="D178" t="n">
-        <v>366</v>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>740</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>31.52</v>
       </c>
     </row>
     <row r="179">
@@ -4367,18 +5429,24 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CLASSIC ZERO 20KG-1</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
+          <t>ТРБТ КОТ OL ВЗР Курица 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5410340413173</t>
+        </is>
+      </c>
       <c r="D179" t="n">
-        <v>301</v>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>677</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>59.35</v>
       </c>
     </row>
     <row r="180">
@@ -4389,18 +5457,24 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY STICKS поп мед 0.1KG 1шт</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
+          <t>ТРБТ КОТ OL ВЗР Лосось 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5410340413197</t>
+        </is>
+      </c>
       <c r="D180" t="n">
-        <v>405</v>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>930</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>58.25</v>
       </c>
     </row>
     <row r="181">
@@ -4411,18 +5485,24 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY STICKS фрукты 0.11KG 1шт</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
+          <t>ТРБТ КОТ OL ВЗР Лосось 7.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5410340413227</t>
+        </is>
+      </c>
       <c r="D181" t="n">
-        <v>323</v>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>974</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>152.88</v>
       </c>
     </row>
     <row r="182">
@@ -4433,18 +5513,24 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ CRISPY STICKS лесные фрукты 0.11KG 1шт</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
+          <t>ТРБТ КОТ OL ВЗР СТРЗ Курица 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>5410340413159</t>
+        </is>
+      </c>
       <c r="D182" t="n">
-        <v>440</v>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>58.25</v>
       </c>
     </row>
     <row r="183">
@@ -4455,18 +5541,1748 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ТРБТ ГРЫЗ ПЕСОК CHINCHILLA 1.3KG-1</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
+          <t>ТРБТ КОТ OL ВЗР СТРЗ Курица 7.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5410340413210</t>
+        </is>
+      </c>
       <c r="D183" t="n">
-        <v>475</v>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>869</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>155.35</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ТРБТ КОТ OL МОЛ Курица 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5410340413098</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>47.69</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-1</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>5410340211526</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>919</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-2</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>5410340211526</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>546</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-3</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>5410340211526</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>837</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-5</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>5410340211526</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>968</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ CLASSIC BUDGIES 20KG-1</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5410340216132</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>91.06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>5410340216200</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>887</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>9.279999999999999</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-2</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>5410340216200</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>867</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>9.279999999999999</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-6</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>5410340216200</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>857</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>9.279999999999999</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE BUDGIES 20KG-1</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>5410340216163</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>819</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-1</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>5410340210406</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>749</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-2</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>5410340210406</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>548</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-6</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>5410340210406</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>742</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE CANARIES 20KG-1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>5410340210383</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>152.08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-1</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>5410340115053</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>972</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE DOVE 1KG-6</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>5410340115053</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>752</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>5410340215203</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-6</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>5410340215203</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE FINCHES 20KG-1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>5410340215180</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>949</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>145.88</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE KRISTAL SHELL SAND 2KG-1</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5410340230107</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>647</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>5410340218808</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>752</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>5410340218808</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>527</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-3</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>5410340218808</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>728</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-6</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>5410340218808</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>866</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS 20KG-1</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>5410340218785</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>524</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>148.31</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-1</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>5410340219072</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>688</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-2</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>5410340219072</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>977</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-3</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>5410340219072</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>834</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-5</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>5410340219072</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>850</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 15KG-1</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>5410340218204</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>564</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>135.78</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>5410340217955</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>678</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-2</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>5410340217955</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>878</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-3</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>5410340217955</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>590</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-5</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>5410340217955</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>583</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE PARROTS PROMO 16.5KG-1</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>5410340211304</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>136.76</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE SEPIA 0.08KG-1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>5410340513385</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>780</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS EGG THYME 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>5410340223543</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS EXFR 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>5410340223093</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS FORFR 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>5410340223109</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS FRUIT FLOWER 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>5410340223512</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS HONEY 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>5410340223086</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS MIX 0.06KG-4</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>OZN1393371709</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS MIX2 0.06KG-4</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>OZN1617715038</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS NUTS RAISIN 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>5410340223529</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>669</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS SHELL 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>5410340223239</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ТРБТ ПТИЦ PRESTIGE STICKS VEG+DAN 0.06KG-1</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>5410340223536</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ HL ВЗР ВСЕ Говядина 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>5410340311042</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>127.62</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ HL ВЗР ВСЕ Лосось 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>5410340310885</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>582</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>123.72</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ HL ВЗР ВСЕ Ягнёнок 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>5410340311011</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>687</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>127.25</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ HL ВЗР МЕЛК Ягнёнок 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>5410340310410</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>599</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OKE DK ВЗР ВСЕ Мясо 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>5410340380123</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>734</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>59.33</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OKE ВЗР ВСЕ Ягненок Рис 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>5410340380178</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>783</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>119.35</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OKE МОЛ ВСЕ Мясо 10кг 1шт</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>5410340380147</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>857</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>61.72</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL Breeder ВЗР ВСЕ Ягнёнок Рис 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>5410340310366</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>801</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>248.93</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>5410340311486</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>543</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>53.65</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 7.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>5410340311493</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>565</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>115.79</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>5410340311349</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>831</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>52.51</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 7.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>5410340311356</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>531</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>111.47</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL ВЗР СР КР Лосось Рис 12.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>5410340311479</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>608</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>191.59</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL ВЗР СР КР Ягнёнок Рис 12.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>5410340311332</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>956</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>183.95</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 12.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>5410340311639</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>951</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>202.25</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 2.5кг 1шт</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>5410340311622</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>53.65</v>
       </c>
     </row>
   </sheetData>
